--- a/ZeroJudge/Record.xlsx
+++ b/ZeroJudge/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\ZeroJudge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77450578-6416-46B6-8269-78499464DF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC454917-75B8-4934-AE98-59FC6C2F63C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Problem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>a001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,11 +366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -390,6 +394,14 @@
         <v>45735</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45735</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
     <sortCondition ref="A1:A2"/>
